--- a/UEPy/Test.xlsx
+++ b/UEPy/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chatGPT\UEPy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4FA6CA-10A0-4397-8EB9-F3A28968149C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3291DE6-309D-4C39-AE67-502A55EF7807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33969" yWindow="1029" windowWidth="21531" windowHeight="17100" xr2:uid="{27258FCD-7B9A-43C2-9814-46A680D85678}"/>
+    <workbookView xWindow="3943" yWindow="5623" windowWidth="19414" windowHeight="7217" xr2:uid="{27258FCD-7B9A-43C2-9814-46A680D85678}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>ItemId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,78 @@
   </si>
   <si>
     <t>int32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestInt64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestBool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ftext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FVector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestRotator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRotator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestTransform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTransform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestEnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECollisionEnabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum ETextOverflowPolicy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,15 +507,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A231A0-44AC-403B-8E3B-A53E839FD206}">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="12.640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.92578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -453,8 +530,32 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -464,8 +565,32 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -474,6 +599,30 @@
       </c>
       <c r="C4" t="s">
         <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
